--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ncam1-Robo3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ncam1-Robo3.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.182981</v>
+        <v>1.208684666666667</v>
       </c>
       <c r="H2">
-        <v>3.548943</v>
+        <v>3.626054</v>
       </c>
       <c r="I2">
-        <v>0.02832403852590812</v>
+        <v>0.01462795763842055</v>
       </c>
       <c r="J2">
-        <v>0.02832403852590812</v>
+        <v>0.01462795763842055</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,10 +555,10 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.268399666666667</v>
+        <v>4.063699000000001</v>
       </c>
       <c r="N2">
-        <v>6.805199</v>
+        <v>12.191097</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -567,16 +567,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>2.683473706073</v>
+        <v>4.911730671248668</v>
       </c>
       <c r="R2">
-        <v>24.151263354657</v>
+        <v>44.205576041238</v>
       </c>
       <c r="S2">
-        <v>0.02832403852590812</v>
+        <v>0.01462795763842055</v>
       </c>
       <c r="T2">
-        <v>0.02832403852590812</v>
+        <v>0.01462795763842055</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>15.534092</v>
       </c>
       <c r="I3">
-        <v>0.1239772575307637</v>
+        <v>0.0626664797952065</v>
       </c>
       <c r="J3">
-        <v>0.1239772575307637</v>
+        <v>0.06266647979520648</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,10 +617,10 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.268399666666667</v>
+        <v>4.063699000000001</v>
       </c>
       <c r="N3">
-        <v>6.805199</v>
+        <v>12.191097</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>11.74584303825645</v>
+        <v>21.04195804210267</v>
       </c>
       <c r="R3">
-        <v>105.712587344308</v>
+        <v>189.377622378924</v>
       </c>
       <c r="S3">
-        <v>0.1239772575307637</v>
+        <v>0.0626664797952065</v>
       </c>
       <c r="T3">
-        <v>0.1239772575307637</v>
+        <v>0.06266647979520648</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>35.31548633333333</v>
+        <v>76.16218566666667</v>
       </c>
       <c r="H4">
-        <v>105.946459</v>
+        <v>228.486557</v>
       </c>
       <c r="I4">
-        <v>0.8455564336760396</v>
+        <v>0.9217434921665711</v>
       </c>
       <c r="J4">
-        <v>0.8455564336760398</v>
+        <v>0.921743492166571</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,10 +679,10 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.268399666666667</v>
+        <v>4.063699000000001</v>
       </c>
       <c r="N4">
-        <v>6.805199</v>
+        <v>12.191097</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -691,16 +691,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>80.10963742670455</v>
+        <v>309.5001977314477</v>
       </c>
       <c r="R4">
-        <v>720.986736840341</v>
+        <v>2785.501779583029</v>
       </c>
       <c r="S4">
-        <v>0.8455564336760396</v>
+        <v>0.9217434921665711</v>
       </c>
       <c r="T4">
-        <v>0.8455564336760398</v>
+        <v>0.921743492166571</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.089474</v>
+        <v>0.07949433333333333</v>
       </c>
       <c r="H5">
-        <v>0.268422</v>
+        <v>0.238483</v>
       </c>
       <c r="I5">
-        <v>0.002142270267288404</v>
+        <v>0.0009620703998019471</v>
       </c>
       <c r="J5">
-        <v>0.002142270267288404</v>
+        <v>0.000962070399801947</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,10 +741,10 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.268399666666667</v>
+        <v>4.063699000000001</v>
       </c>
       <c r="N5">
-        <v>6.805199</v>
+        <v>12.191097</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -753,16 +753,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.2029627917753333</v>
+        <v>0.3230410428723334</v>
       </c>
       <c r="R5">
-        <v>1.826665125978</v>
+        <v>2.907369385851</v>
       </c>
       <c r="S5">
-        <v>0.002142270267288404</v>
+        <v>0.0009620703998019471</v>
       </c>
       <c r="T5">
-        <v>0.002142270267288404</v>
+        <v>0.000962070399801947</v>
       </c>
     </row>
   </sheetData>
